--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">1234,Qwerty@123</t>
   </si>
   <si>
-    <t xml:space="preserve">NetchainTest.Pack</t>
+    <t xml:space="preserve">NetchainTest.Packing</t>
   </si>
   <si>
     <t xml:space="preserve">Dell</t>
@@ -316,7 +316,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,10 +330,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,8 +359,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="28" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -660,7 +658,7 @@
       <c r="V9" s="0" t="n">
         <v>440015</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -672,7 +670,7 @@
       <c r="Z9" s="0" t="n">
         <v>12345</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AA9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AB9" s="0" t="s">
@@ -749,7 +747,7 @@
       <c r="V10" s="0" t="n">
         <v>440015</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="X10" s="2" t="s">
@@ -761,7 +759,7 @@
       <c r="Z10" s="0" t="n">
         <v>12345</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AB10" s="0" t="s">
